--- a/gameData/shared/HouseFunction.xlsx
+++ b/gameData/shared/HouseFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="0" windowWidth="34520" windowHeight="17780" tabRatio="883" activeTab="4"/>
+    <workbookView xWindow="3740" yWindow="0" windowWidth="36000" windowHeight="19100" tabRatio="883" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dwelling" sheetId="21" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <t>INT_population</t>
   </si>
@@ -67,6 +67,9 @@
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_power</t>
   </si>
 </sst>
 </file>
@@ -229,7 +232,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="302">
+  <cellStyleXfs count="310">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -244,6 +247,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -552,7 +563,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="302">
+  <cellStyles count="310">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -706,6 +717,10 @@
     <cellStyle name="超链接" xfId="296" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="298" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="308" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -852,6 +867,10 @@
     <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1301,10 +1320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="D1" sqref="D1:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1312,7 +1331,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1322,8 +1341,11 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1333,8 +1355,11 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1344,8 +1369,11 @@
       <c r="C3" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1355,8 +1383,11 @@
       <c r="C4" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+      <c r="D4" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1366,8 +1397,11 @@
       <c r="C5" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+      <c r="D5" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1377,8 +1411,11 @@
       <c r="C6" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+      <c r="D6" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1388,8 +1425,11 @@
       <c r="C7" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+      <c r="D7" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1399,8 +1439,11 @@
       <c r="C8" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+      <c r="D8" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1410,8 +1453,11 @@
       <c r="C9" s="1">
         <v>1500</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+      <c r="D9" s="3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1421,8 +1467,11 @@
       <c r="C10" s="1">
         <v>2000</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+      <c r="D10" s="3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1432,8 +1481,11 @@
       <c r="C11" s="1">
         <v>2500</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+      <c r="D11" s="3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1443,8 +1495,11 @@
       <c r="C12" s="1">
         <v>3000</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
+      <c r="D12" s="3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1454,8 +1509,11 @@
       <c r="C13" s="1">
         <v>3500</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
+      <c r="D13" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1465,8 +1523,11 @@
       <c r="C14" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
+      <c r="D14" s="3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1476,8 +1537,11 @@
       <c r="C15" s="1">
         <v>4500</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
+      <c r="D15" s="3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1487,8 +1551,11 @@
       <c r="C16" s="1">
         <v>5000</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
+      <c r="D16" s="3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1498,8 +1565,11 @@
       <c r="C17" s="1">
         <v>5500</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
+      <c r="D17" s="3">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1509,8 +1579,11 @@
       <c r="C18" s="1">
         <v>6000</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1">
+      <c r="D18" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1520,8 +1593,11 @@
       <c r="C19" s="1">
         <v>6500</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
+      <c r="D19" s="3">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1531,8 +1607,11 @@
       <c r="C20" s="1">
         <v>7000</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1">
+      <c r="D20" s="3">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1542,8 +1621,11 @@
       <c r="C21" s="1">
         <v>7500</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1">
+      <c r="D21" s="3">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1552,6 +1634,9 @@
       </c>
       <c r="C22" s="1">
         <v>8000</v>
+      </c>
+      <c r="D22" s="3">
+        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -1568,10 +1653,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C1" sqref="C1:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1579,180 +1664,246 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>600</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="C4" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>1800</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="C5" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>3600</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="C6" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10800</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="C7" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>21600</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="C8" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>32400</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="C9" s="3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>43200</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="C10" s="3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>54000</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="C11" s="3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>64800</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
+      <c r="C12" s="3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>75600</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
+      <c r="C13" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>86400</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
+      <c r="C14" s="3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>97200</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
+      <c r="C15" s="3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>108000</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
+      <c r="C16" s="3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>144000</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
+      <c r="C17" s="3">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>180000</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
+      <c r="C18" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>216000</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
+      <c r="C19" s="3">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>252000</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
+      <c r="C20" s="3">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>288000</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
+      <c r="C21" s="3">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>540000</v>
+      </c>
+      <c r="C22" s="3">
+        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -1769,10 +1920,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C1" sqref="C1:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1780,180 +1931,246 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>600</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="C4" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>1800</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="C5" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>3600</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="C6" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10800</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="C7" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>21600</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="C8" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>32400</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="C9" s="3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>43200</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="C10" s="3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>54000</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="C11" s="3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>64800</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
+      <c r="C12" s="3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>75600</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
+      <c r="C13" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>86400</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
+      <c r="C14" s="3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>97200</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
+      <c r="C15" s="3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>108000</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
+      <c r="C16" s="3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>144000</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
+      <c r="C17" s="3">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>180000</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
+      <c r="C18" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>216000</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
+      <c r="C19" s="3">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>252000</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
+      <c r="C20" s="3">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>288000</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
+      <c r="C21" s="3">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>540000</v>
+      </c>
+      <c r="C22" s="3">
+        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -1970,10 +2187,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C1" sqref="C1:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1981,180 +2198,246 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>600</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="C4" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>1800</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="C5" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>3600</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="C6" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10800</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="C7" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>21600</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="C8" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>32400</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="C9" s="3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>43200</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="C10" s="3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>54000</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="C11" s="3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>64800</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
+      <c r="C12" s="3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>75600</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
+      <c r="C13" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>86400</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
+      <c r="C14" s="3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>97200</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
+      <c r="C15" s="3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>108000</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
+      <c r="C16" s="3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>144000</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
+      <c r="C17" s="3">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>180000</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
+      <c r="C18" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>216000</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
+      <c r="C19" s="3">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>252000</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
+      <c r="C20" s="3">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>288000</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
+      <c r="C21" s="3">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>540000</v>
+      </c>
+      <c r="C22" s="3">
+        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -2171,10 +2454,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2182,180 +2465,246 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="C4" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="C5" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>3600</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="C6" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>10800</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="C7" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>21600</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="C8" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>32400</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="C9" s="3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>43200</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="C10" s="3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>54000</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="C11" s="3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>64800</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
+      <c r="C12" s="3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="3">
         <v>75600</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
+      <c r="C13" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="3">
         <v>86400</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
+      <c r="C14" s="3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="3">
         <v>97200</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
+      <c r="C15" s="3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="3">
         <v>108000</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
+      <c r="C16" s="3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="3">
         <v>144000</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
+      <c r="C17" s="3">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="3">
         <v>180000</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
+      <c r="C18" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="3">
         <v>216000</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
+      <c r="C19" s="3">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="3">
         <v>252000</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
+      <c r="C20" s="3">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="3">
         <v>288000</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
+      <c r="C21" s="3">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="3">
         <v>540000</v>
+      </c>
+      <c r="C22" s="3">
+        <v>792</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/HouseFunction.xlsx
+++ b/gameData/shared/HouseFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="0" windowWidth="36000" windowHeight="19100" tabRatio="883" activeTab="4"/>
+    <workbookView xWindow="2600" yWindow="740" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dwelling" sheetId="21" r:id="rId1"/>
@@ -54,10 +54,6 @@
     <t>INT_population</t>
   </si>
   <si>
-    <t>INT_recoverycitizen</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_poduction</t>
   </si>
   <si>
@@ -70,6 +66,10 @@
   </si>
   <si>
     <t>INT_power</t>
+  </si>
+  <si>
+    <t>INT_recoveryCitizen</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1323,7 +1323,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D22"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1333,16 +1333,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -1666,13 +1666,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -1933,13 +1933,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -2200,13 +2200,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -2457,7 +2457,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2467,13 +2467,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
